--- a/artfynd/A 5936-2025 artfynd.xlsx
+++ b/artfynd/A 5936-2025 artfynd.xlsx
@@ -1159,7 +1159,7 @@
         <v>130989759</v>
       </c>
       <c r="B6" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
